--- a/Financials/Quarterly/TSCDY_QTR_FIN.xlsx
+++ b/Financials/Quarterly/TSCDY_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1ACE3A0-66A2-4F27-8B8C-6703735B77A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TSCDY" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>TSCDY</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,152 +689,165 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43337</v>
+      </c>
+      <c r="E7" s="2">
         <v>43155</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42973</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42791</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42609</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42427</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42245</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42063</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41874</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>38375200</v>
+        <v>41391000</v>
       </c>
       <c r="E8" s="3">
-        <v>37328400</v>
+        <v>38023200</v>
       </c>
       <c r="F8" s="3">
-        <v>37632500</v>
+        <v>36962800</v>
       </c>
       <c r="G8" s="3">
-        <v>35998400</v>
+        <v>37275900</v>
       </c>
       <c r="H8" s="3">
-        <v>35509900</v>
+        <v>35657200</v>
       </c>
       <c r="I8" s="3">
-        <v>35508600</v>
+        <v>35173300</v>
       </c>
       <c r="J8" s="3">
+        <v>35172000</v>
+      </c>
+      <c r="K8" s="3">
         <v>38264600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>36693700</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>35994500</v>
+        <v>38846300</v>
       </c>
       <c r="E9" s="3">
-        <v>35233400</v>
+        <v>35653300</v>
       </c>
       <c r="F9" s="3">
-        <v>35582300</v>
+        <v>34899400</v>
       </c>
       <c r="G9" s="3">
-        <v>34074600</v>
+        <v>35245100</v>
       </c>
       <c r="H9" s="3">
-        <v>67241900</v>
+        <v>33751600</v>
       </c>
       <c r="I9" s="3">
-        <v>67996400</v>
+        <v>66604600</v>
       </c>
       <c r="J9" s="3">
+        <v>67352000</v>
+      </c>
+      <c r="K9" s="3">
         <v>83537200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>73544000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2380800</v>
+        <v>2544700</v>
       </c>
       <c r="E10" s="3">
-        <v>2095000</v>
+        <v>2369900</v>
       </c>
       <c r="F10" s="3">
-        <v>2050200</v>
+        <v>2063400</v>
       </c>
       <c r="G10" s="3">
-        <v>1923800</v>
+        <v>2030800</v>
       </c>
       <c r="H10" s="3">
-        <v>-31732000</v>
+        <v>1905600</v>
       </c>
       <c r="I10" s="3">
-        <v>-32487800</v>
+        <v>-31431300</v>
       </c>
       <c r="J10" s="3">
+        <v>-32179900</v>
+      </c>
+      <c r="K10" s="3">
         <v>-45272600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-36850400</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -811,8 +859,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +889,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,66 +921,75 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-69800</v>
+        <v>113500</v>
       </c>
       <c r="E14" s="3">
-        <v>83000</v>
+        <v>-69100</v>
       </c>
       <c r="F14" s="3">
-        <v>379200</v>
+        <v>82200</v>
       </c>
       <c r="G14" s="3">
-        <v>184400</v>
+        <v>375600</v>
       </c>
       <c r="H14" s="3">
-        <v>-114600</v>
+        <v>182600</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>-113500</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>5394900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>179100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>52200</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,66 +998,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>37121600</v>
+        <v>40322700</v>
       </c>
       <c r="E17" s="3">
-        <v>36163000</v>
+        <v>36769800</v>
       </c>
       <c r="F17" s="3">
-        <v>36971500</v>
+        <v>35820300</v>
       </c>
       <c r="G17" s="3">
-        <v>35320300</v>
+        <v>36621100</v>
       </c>
       <c r="H17" s="3">
-        <v>34588100</v>
+        <v>34985500</v>
       </c>
       <c r="I17" s="3">
-        <v>35018700</v>
+        <v>34260300</v>
       </c>
       <c r="J17" s="3">
+        <v>34686800</v>
+      </c>
+      <c r="K17" s="3">
         <v>46120600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>36409200</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1253600</v>
+        <v>1068200</v>
       </c>
       <c r="E18" s="3">
-        <v>1165400</v>
+        <v>1253400</v>
       </c>
       <c r="F18" s="3">
-        <v>661000</v>
+        <v>1142600</v>
       </c>
       <c r="G18" s="3">
-        <v>678100</v>
+        <v>654800</v>
       </c>
       <c r="H18" s="3">
-        <v>921800</v>
+        <v>671700</v>
       </c>
       <c r="I18" s="3">
-        <v>489800</v>
+        <v>913000</v>
       </c>
       <c r="J18" s="3">
+        <v>485200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-7856000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>284400</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,153 +1076,169 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-57900</v>
+        <v>-163000</v>
       </c>
       <c r="E20" s="3">
-        <v>-165900</v>
+        <v>-37800</v>
       </c>
       <c r="F20" s="3">
-        <v>-289700</v>
+        <v>-183900</v>
       </c>
       <c r="G20" s="3">
-        <v>-284400</v>
+        <v>-286900</v>
       </c>
       <c r="H20" s="3">
-        <v>-525400</v>
+        <v>-281700</v>
       </c>
       <c r="I20" s="3">
-        <v>-110600</v>
+        <v>-520400</v>
       </c>
       <c r="J20" s="3">
+        <v>-109600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-185700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-59300</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2058100</v>
+        <v>1790800</v>
       </c>
       <c r="E21" s="3">
-        <v>1842200</v>
+        <v>2069900</v>
       </c>
       <c r="F21" s="3">
-        <v>1258900</v>
+        <v>1793400</v>
       </c>
       <c r="G21" s="3">
-        <v>1223300</v>
+        <v>1246900</v>
       </c>
       <c r="H21" s="3">
-        <v>1199600</v>
+        <v>1211700</v>
       </c>
       <c r="I21" s="3">
-        <v>1332600</v>
+        <v>1188200</v>
       </c>
       <c r="J21" s="3">
+        <v>1320000</v>
+      </c>
+      <c r="K21" s="3">
         <v>-6971100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1198300</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>226500</v>
+        <v>169600</v>
       </c>
       <c r="E22" s="3">
-        <v>259400</v>
+        <v>243900</v>
       </c>
       <c r="F22" s="3">
+        <v>237400</v>
+      </c>
+      <c r="G22" s="3">
+        <v>271300</v>
+      </c>
+      <c r="H22" s="3">
+        <v>297400</v>
+      </c>
+      <c r="I22" s="3">
+        <v>258300</v>
+      </c>
+      <c r="J22" s="3">
+        <v>246500</v>
+      </c>
+      <c r="K22" s="3">
         <v>273900</v>
       </c>
-      <c r="G22" s="3">
-        <v>300200</v>
-      </c>
-      <c r="H22" s="3">
-        <v>260700</v>
-      </c>
-      <c r="I22" s="3">
-        <v>248900</v>
-      </c>
-      <c r="J22" s="3">
-        <v>273900</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>250200</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>969200</v>
+        <v>735600</v>
       </c>
       <c r="E23" s="3">
-        <v>740000</v>
+        <v>971700</v>
       </c>
       <c r="F23" s="3">
-        <v>97400</v>
+        <v>721300</v>
       </c>
       <c r="G23" s="3">
-        <v>93500</v>
+        <v>96500</v>
       </c>
       <c r="H23" s="3">
-        <v>135600</v>
+        <v>92600</v>
       </c>
       <c r="I23" s="3">
-        <v>130400</v>
+        <v>134300</v>
       </c>
       <c r="J23" s="3">
+        <v>129100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-8315500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-25000</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>221200</v>
+        <v>180000</v>
       </c>
       <c r="E24" s="3">
-        <v>181700</v>
+        <v>221700</v>
       </c>
       <c r="F24" s="3">
-        <v>61900</v>
+        <v>177400</v>
       </c>
       <c r="G24" s="3">
-        <v>52700</v>
+        <v>61300</v>
       </c>
       <c r="H24" s="3">
-        <v>-139600</v>
+        <v>52200</v>
       </c>
       <c r="I24" s="3">
-        <v>68500</v>
+        <v>-138300</v>
       </c>
       <c r="J24" s="3">
+        <v>67800</v>
+      </c>
+      <c r="K24" s="3">
         <v>-890200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,66 +1266,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>747900</v>
+        <v>555600</v>
       </c>
       <c r="E26" s="3">
-        <v>558300</v>
+        <v>750000</v>
       </c>
       <c r="F26" s="3">
-        <v>35600</v>
+        <v>543900</v>
       </c>
       <c r="G26" s="3">
-        <v>40800</v>
+        <v>35200</v>
       </c>
       <c r="H26" s="3">
-        <v>275200</v>
+        <v>40400</v>
       </c>
       <c r="I26" s="3">
-        <v>61900</v>
+        <v>272600</v>
       </c>
       <c r="J26" s="3">
+        <v>61300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-7425400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-32900</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>742700</v>
+        <v>555600</v>
       </c>
       <c r="E27" s="3">
-        <v>561000</v>
+        <v>744800</v>
       </c>
       <c r="F27" s="3">
-        <v>42100</v>
+        <v>546500</v>
       </c>
       <c r="G27" s="3">
-        <v>52700</v>
+        <v>41700</v>
       </c>
       <c r="H27" s="3">
-        <v>283100</v>
+        <v>52200</v>
       </c>
       <c r="I27" s="3">
-        <v>65800</v>
+        <v>280400</v>
       </c>
       <c r="J27" s="3">
+        <v>65200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-7392500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-32900</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,37 +1362,43 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>6600</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>277800</v>
+        <v>6500</v>
       </c>
       <c r="F29" s="3">
-        <v>25000</v>
+        <v>275200</v>
       </c>
       <c r="G29" s="3">
-        <v>-172500</v>
+        <v>24800</v>
       </c>
       <c r="H29" s="3">
-        <v>379200</v>
+        <v>-170900</v>
       </c>
       <c r="I29" s="3">
-        <v>-546500</v>
+        <v>375600</v>
       </c>
       <c r="J29" s="3">
+        <v>-541300</v>
+      </c>
+      <c r="K29" s="3">
         <v>-175100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>40800</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1426,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,66 +1458,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>57900</v>
+        <v>163000</v>
       </c>
       <c r="E32" s="3">
-        <v>165900</v>
+        <v>37800</v>
       </c>
       <c r="F32" s="3">
-        <v>289700</v>
+        <v>183900</v>
       </c>
       <c r="G32" s="3">
-        <v>284400</v>
+        <v>286900</v>
       </c>
       <c r="H32" s="3">
-        <v>525400</v>
+        <v>281700</v>
       </c>
       <c r="I32" s="3">
-        <v>110600</v>
+        <v>520400</v>
       </c>
       <c r="J32" s="3">
+        <v>109600</v>
+      </c>
+      <c r="K32" s="3">
         <v>185700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>59300</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>749300</v>
+        <v>555600</v>
       </c>
       <c r="E33" s="3">
-        <v>838800</v>
+        <v>751300</v>
       </c>
       <c r="F33" s="3">
-        <v>67200</v>
+        <v>821700</v>
       </c>
       <c r="G33" s="3">
-        <v>-119800</v>
+        <v>66500</v>
       </c>
       <c r="H33" s="3">
-        <v>662300</v>
+        <v>-118700</v>
       </c>
       <c r="I33" s="3">
-        <v>-480600</v>
+        <v>656100</v>
       </c>
       <c r="J33" s="3">
+        <v>-476100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-7567600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,71 +1554,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>749300</v>
+        <v>555600</v>
       </c>
       <c r="E35" s="3">
-        <v>838800</v>
+        <v>751300</v>
       </c>
       <c r="F35" s="3">
-        <v>67200</v>
+        <v>821700</v>
       </c>
       <c r="G35" s="3">
-        <v>-119800</v>
+        <v>66500</v>
       </c>
       <c r="H35" s="3">
-        <v>662300</v>
+        <v>-118700</v>
       </c>
       <c r="I35" s="3">
-        <v>-480600</v>
+        <v>656100</v>
       </c>
       <c r="J35" s="3">
+        <v>-476100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-7567600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43337</v>
+      </c>
+      <c r="E38" s="2">
         <v>43155</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42973</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42791</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42609</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42427</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42245</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42063</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41874</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1639,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,269 +1653,297 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5344900</v>
+        <v>4229900</v>
       </c>
       <c r="E41" s="3">
-        <v>5687200</v>
+        <v>5294200</v>
       </c>
       <c r="F41" s="3">
-        <v>5031500</v>
+        <v>5633300</v>
       </c>
       <c r="G41" s="3">
-        <v>8835700</v>
+        <v>4983800</v>
       </c>
       <c r="H41" s="3">
-        <v>4058300</v>
+        <v>8751900</v>
       </c>
       <c r="I41" s="3">
-        <v>2878500</v>
+        <v>4019900</v>
       </c>
       <c r="J41" s="3">
+        <v>2851200</v>
+      </c>
+      <c r="K41" s="3">
         <v>2850900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3841100</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1444500</v>
+        <v>1046100</v>
       </c>
       <c r="E42" s="3">
-        <v>3305100</v>
+        <v>1430800</v>
       </c>
       <c r="F42" s="3">
-        <v>3964900</v>
+        <v>3273800</v>
       </c>
       <c r="G42" s="3">
-        <v>6099400</v>
+        <v>3927300</v>
       </c>
       <c r="H42" s="3">
-        <v>4635100</v>
+        <v>6041600</v>
       </c>
       <c r="I42" s="3">
-        <v>395000</v>
+        <v>4591200</v>
       </c>
       <c r="J42" s="3">
+        <v>391300</v>
+      </c>
+      <c r="K42" s="3">
         <v>780900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2612500</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8073200</v>
+        <v>8418000</v>
       </c>
       <c r="E43" s="3">
-        <v>8011400</v>
+        <v>8025400</v>
       </c>
       <c r="F43" s="3">
-        <v>7445100</v>
+        <v>7956300</v>
       </c>
       <c r="G43" s="3">
-        <v>7325300</v>
+        <v>7374600</v>
       </c>
       <c r="H43" s="3">
-        <v>6900000</v>
+        <v>7255900</v>
       </c>
       <c r="I43" s="3">
-        <v>7292400</v>
+        <v>6834600</v>
       </c>
       <c r="J43" s="3">
+        <v>7223300</v>
+      </c>
+      <c r="K43" s="3">
         <v>7836200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8100900</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2979900</v>
+        <v>3679500</v>
       </c>
       <c r="E44" s="3">
-        <v>3276200</v>
+        <v>2953000</v>
       </c>
       <c r="F44" s="3">
-        <v>3029900</v>
+        <v>3246400</v>
       </c>
       <c r="G44" s="3">
-        <v>3298600</v>
+        <v>3001200</v>
       </c>
       <c r="H44" s="3">
-        <v>3199800</v>
+        <v>3267300</v>
       </c>
       <c r="I44" s="3">
-        <v>3450000</v>
+        <v>3169500</v>
       </c>
       <c r="J44" s="3">
+        <v>3417300</v>
+      </c>
+      <c r="K44" s="3">
         <v>3893700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4739100</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>35600</v>
+        <v>253000</v>
       </c>
       <c r="E45" s="3">
-        <v>528000</v>
+        <v>35200</v>
       </c>
       <c r="F45" s="3">
-        <v>829600</v>
+        <v>523000</v>
       </c>
       <c r="G45" s="3">
-        <v>1032400</v>
+        <v>821700</v>
       </c>
       <c r="H45" s="3">
-        <v>542500</v>
+        <v>1022600</v>
       </c>
       <c r="I45" s="3">
-        <v>6890800</v>
+        <v>537400</v>
       </c>
       <c r="J45" s="3">
+        <v>6825500</v>
+      </c>
+      <c r="K45" s="3">
         <v>384500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17878100</v>
+        <v>17626400</v>
       </c>
       <c r="E46" s="3">
-        <v>20807900</v>
+        <v>17738600</v>
       </c>
       <c r="F46" s="3">
-        <v>20301000</v>
+        <v>20467200</v>
       </c>
       <c r="G46" s="3">
-        <v>22173400</v>
+        <v>20108500</v>
       </c>
       <c r="H46" s="3">
-        <v>19335700</v>
+        <v>21963300</v>
       </c>
       <c r="I46" s="3">
-        <v>20906700</v>
+        <v>19152500</v>
       </c>
       <c r="J46" s="3">
+        <v>20708500</v>
+      </c>
+      <c r="K46" s="3">
         <v>15746200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>19371300</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11350700</v>
+        <v>11824900</v>
       </c>
       <c r="E47" s="3">
-        <v>10684400</v>
+        <v>11243200</v>
       </c>
       <c r="F47" s="3">
-        <v>9924600</v>
+        <v>10583200</v>
       </c>
       <c r="G47" s="3">
-        <v>9505900</v>
+        <v>9830600</v>
       </c>
       <c r="H47" s="3">
-        <v>8937100</v>
+        <v>9415800</v>
       </c>
       <c r="I47" s="3">
-        <v>8041600</v>
+        <v>8852400</v>
       </c>
       <c r="J47" s="3">
+        <v>7965400</v>
+      </c>
+      <c r="K47" s="3">
         <v>7665000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>8447200</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24519900</v>
+        <v>24651500</v>
       </c>
       <c r="E48" s="3">
-        <v>24364600</v>
+        <v>24287600</v>
       </c>
       <c r="F48" s="3">
-        <v>23928700</v>
+        <v>24133600</v>
       </c>
       <c r="G48" s="3">
-        <v>23282200</v>
+        <v>23701900</v>
       </c>
       <c r="H48" s="3">
-        <v>23673300</v>
+        <v>23061500</v>
       </c>
       <c r="I48" s="3">
-        <v>21724400</v>
+        <v>23448900</v>
       </c>
       <c r="J48" s="3">
+        <v>21518500</v>
+      </c>
+      <c r="K48" s="3">
         <v>27131100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>32553700</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3504000</v>
+        <v>8429800</v>
       </c>
       <c r="E49" s="3">
-        <v>3623800</v>
+        <v>3470800</v>
       </c>
       <c r="F49" s="3">
-        <v>3577700</v>
+        <v>3589500</v>
       </c>
       <c r="G49" s="3">
-        <v>3710700</v>
+        <v>3543800</v>
       </c>
       <c r="H49" s="3">
-        <v>3784500</v>
+        <v>3675500</v>
       </c>
       <c r="I49" s="3">
-        <v>4111000</v>
+        <v>3748600</v>
       </c>
       <c r="J49" s="3">
+        <v>4072100</v>
+      </c>
+      <c r="K49" s="3">
         <v>4965600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5264500</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +1971,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,37 +2003,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1821100</v>
+        <v>1903000</v>
       </c>
       <c r="E52" s="3">
-        <v>1738200</v>
+        <v>1802600</v>
       </c>
       <c r="F52" s="3">
-        <v>2646700</v>
+        <v>1887300</v>
       </c>
       <c r="G52" s="3">
-        <v>3443400</v>
+        <v>2621700</v>
       </c>
       <c r="H52" s="3">
-        <v>2081800</v>
+        <v>3410800</v>
       </c>
       <c r="I52" s="3">
-        <v>2532200</v>
+        <v>2062100</v>
       </c>
       <c r="J52" s="3">
+        <v>2508200</v>
+      </c>
+      <c r="K52" s="3">
         <v>2712600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2583500</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,37 +2067,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>59073800</v>
+        <v>64435500</v>
       </c>
       <c r="E54" s="3">
-        <v>61218900</v>
+        <v>58542700</v>
       </c>
       <c r="F54" s="3">
-        <v>60378800</v>
+        <v>60660800</v>
       </c>
       <c r="G54" s="3">
-        <v>62115600</v>
+        <v>59806500</v>
       </c>
       <c r="H54" s="3">
-        <v>57812300</v>
+        <v>61526900</v>
       </c>
       <c r="I54" s="3">
-        <v>57315900</v>
+        <v>57264400</v>
       </c>
       <c r="J54" s="3">
+        <v>56772700</v>
+      </c>
+      <c r="K54" s="3">
         <v>58220600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>68220300</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2115,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,182 +2129,201 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11845800</v>
+        <v>12715700</v>
       </c>
       <c r="E57" s="3">
-        <v>11805000</v>
+        <v>11731000</v>
       </c>
       <c r="F57" s="3">
-        <v>11686500</v>
+        <v>11698400</v>
       </c>
       <c r="G57" s="3">
-        <v>11232200</v>
+        <v>11575800</v>
       </c>
       <c r="H57" s="3">
-        <v>10920100</v>
+        <v>11125800</v>
       </c>
       <c r="I57" s="3">
-        <v>11170300</v>
+        <v>10816600</v>
       </c>
       <c r="J57" s="3">
+        <v>11064500</v>
+      </c>
+      <c r="K57" s="3">
         <v>13065200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>14713800</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1947500</v>
+        <v>3305100</v>
       </c>
       <c r="E58" s="3">
-        <v>3884500</v>
+        <v>3376900</v>
       </c>
       <c r="F58" s="3">
-        <v>3371000</v>
+        <v>5917700</v>
       </c>
       <c r="G58" s="3">
-        <v>3983300</v>
+        <v>3339000</v>
       </c>
       <c r="H58" s="3">
-        <v>3721200</v>
+        <v>3945500</v>
       </c>
       <c r="I58" s="3">
-        <v>1605200</v>
+        <v>3686000</v>
       </c>
       <c r="J58" s="3">
+        <v>1590000</v>
+      </c>
+      <c r="K58" s="3">
         <v>5288200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3916100</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11539000</v>
+        <v>12726200</v>
       </c>
       <c r="E59" s="3">
-        <v>10522500</v>
+        <v>11425800</v>
       </c>
       <c r="F59" s="3">
-        <v>10494800</v>
+        <v>10417500</v>
       </c>
       <c r="G59" s="3">
-        <v>10084000</v>
+        <v>10395400</v>
       </c>
       <c r="H59" s="3">
-        <v>8884400</v>
+        <v>9988400</v>
       </c>
       <c r="I59" s="3">
-        <v>12021000</v>
+        <v>8800200</v>
       </c>
       <c r="J59" s="3">
+        <v>11907000</v>
+      </c>
+      <c r="K59" s="3">
         <v>10376300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10124800</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>25332400</v>
+        <v>28747000</v>
       </c>
       <c r="E60" s="3">
-        <v>26212000</v>
+        <v>25085800</v>
       </c>
       <c r="F60" s="3">
-        <v>25552300</v>
+        <v>25963600</v>
       </c>
       <c r="G60" s="3">
-        <v>25299500</v>
+        <v>25310100</v>
       </c>
       <c r="H60" s="3">
-        <v>23525800</v>
+        <v>25059700</v>
       </c>
       <c r="I60" s="3">
-        <v>24796500</v>
+        <v>23302800</v>
       </c>
       <c r="J60" s="3">
+        <v>24561500</v>
+      </c>
+      <c r="K60" s="3">
         <v>26085600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>28754700</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9404500</v>
+        <v>7047200</v>
       </c>
       <c r="E61" s="3">
-        <v>11374400</v>
+        <v>9315400</v>
       </c>
       <c r="F61" s="3">
-        <v>12421300</v>
+        <v>11266600</v>
       </c>
       <c r="G61" s="3">
-        <v>14655900</v>
+        <v>12303600</v>
       </c>
       <c r="H61" s="3">
-        <v>14104100</v>
+        <v>14517000</v>
       </c>
       <c r="I61" s="3">
-        <v>14991700</v>
+        <v>13970500</v>
       </c>
       <c r="J61" s="3">
+        <v>14849600</v>
+      </c>
+      <c r="K61" s="3">
         <v>14025100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>14360900</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10565900</v>
+        <v>9894500</v>
       </c>
       <c r="E62" s="3">
-        <v>9741600</v>
+        <v>10472300</v>
       </c>
       <c r="F62" s="3">
-        <v>13959300</v>
+        <v>9654500</v>
       </c>
       <c r="G62" s="3">
-        <v>14376700</v>
+        <v>13827000</v>
       </c>
       <c r="H62" s="3">
-        <v>8837000</v>
+        <v>14240500</v>
       </c>
       <c r="I62" s="3">
-        <v>9419000</v>
+        <v>8753200</v>
       </c>
       <c r="J62" s="3">
+        <v>9329700</v>
+      </c>
+      <c r="K62" s="3">
         <v>8798800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7372700</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2351,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2383,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,37 +2415,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>45273900</v>
+        <v>45661300</v>
       </c>
       <c r="E66" s="3">
-        <v>47295100</v>
+        <v>44844800</v>
       </c>
       <c r="F66" s="3">
-        <v>51901300</v>
+        <v>46852100</v>
       </c>
       <c r="G66" s="3">
-        <v>54307100</v>
+        <v>51409400</v>
       </c>
       <c r="H66" s="3">
-        <v>46453700</v>
+        <v>53792400</v>
       </c>
       <c r="I66" s="3">
-        <v>49200500</v>
+        <v>46013400</v>
       </c>
       <c r="J66" s="3">
+        <v>48734200</v>
+      </c>
+      <c r="K66" s="3">
         <v>48909500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>50518600</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2463,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2493,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,8 +2525,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2354,8 +2557,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,37 +2589,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5641100</v>
+        <v>10418800</v>
       </c>
       <c r="E72" s="3">
-        <v>5346200</v>
+        <v>5616400</v>
       </c>
       <c r="F72" s="3">
-        <v>510900</v>
+        <v>5312500</v>
       </c>
       <c r="G72" s="3">
-        <v>-25000</v>
+        <v>506100</v>
       </c>
       <c r="H72" s="3">
-        <v>4113700</v>
+        <v>-24800</v>
       </c>
       <c r="I72" s="3">
-        <v>871700</v>
+        <v>4074700</v>
       </c>
       <c r="J72" s="3">
+        <v>863500</v>
+      </c>
+      <c r="K72" s="3">
         <v>2068700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10459300</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2653,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2685,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,37 +2717,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13800000</v>
+        <v>18774200</v>
       </c>
       <c r="E76" s="3">
-        <v>13923700</v>
+        <v>13697900</v>
       </c>
       <c r="F76" s="3">
-        <v>8477500</v>
+        <v>13808700</v>
       </c>
       <c r="G76" s="3">
-        <v>7808600</v>
+        <v>8397100</v>
       </c>
       <c r="H76" s="3">
-        <v>11358600</v>
+        <v>7734600</v>
       </c>
       <c r="I76" s="3">
-        <v>8115400</v>
+        <v>11251000</v>
       </c>
       <c r="J76" s="3">
+        <v>8038500</v>
+      </c>
+      <c r="K76" s="3">
         <v>9311000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17701600</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,71 +2781,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43337</v>
+      </c>
+      <c r="E80" s="2">
         <v>43155</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42973</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42791</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42609</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42427</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42245</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42063</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41874</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>749300</v>
+        <v>555600</v>
       </c>
       <c r="E81" s="3">
-        <v>838800</v>
+        <v>751300</v>
       </c>
       <c r="F81" s="3">
-        <v>67200</v>
+        <v>821700</v>
       </c>
       <c r="G81" s="3">
-        <v>-119800</v>
+        <v>66500</v>
       </c>
       <c r="H81" s="3">
-        <v>662300</v>
+        <v>-118700</v>
       </c>
       <c r="I81" s="3">
-        <v>-480600</v>
+        <v>656100</v>
       </c>
       <c r="J81" s="3">
+        <v>-476100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-7567600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,37 +2866,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>862500</v>
+        <v>885600</v>
       </c>
       <c r="E83" s="3">
-        <v>842700</v>
+        <v>854300</v>
       </c>
       <c r="F83" s="3">
-        <v>887500</v>
+        <v>834800</v>
       </c>
       <c r="G83" s="3">
-        <v>829600</v>
+        <v>879100</v>
       </c>
       <c r="H83" s="3">
-        <v>803200</v>
+        <v>821700</v>
       </c>
       <c r="I83" s="3">
-        <v>953400</v>
+        <v>795600</v>
       </c>
       <c r="J83" s="3">
+        <v>944300</v>
+      </c>
+      <c r="K83" s="3">
         <v>1070600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>973100</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +2928,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +2960,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +2992,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +3024,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,37 +3056,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2232000</v>
+        <v>1186900</v>
       </c>
       <c r="E89" s="3">
-        <v>1431400</v>
+        <v>2210800</v>
       </c>
       <c r="F89" s="3">
-        <v>1434000</v>
+        <v>1417800</v>
       </c>
       <c r="G89" s="3">
-        <v>1170600</v>
+        <v>1420400</v>
       </c>
       <c r="H89" s="3">
-        <v>2501900</v>
+        <v>1159500</v>
       </c>
       <c r="I89" s="3">
-        <v>297600</v>
+        <v>2478200</v>
       </c>
       <c r="J89" s="3">
+        <v>294800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-310800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>936200</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,37 +3104,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1069200</v>
+        <v>-554300</v>
       </c>
       <c r="E91" s="3">
-        <v>-1086400</v>
+        <v>-940400</v>
       </c>
       <c r="F91" s="3">
-        <v>-1069200</v>
+        <v>-937800</v>
       </c>
       <c r="G91" s="3">
-        <v>-740000</v>
+        <v>-937800</v>
       </c>
       <c r="H91" s="3">
-        <v>-15800</v>
+        <v>-633900</v>
       </c>
       <c r="I91" s="3">
-        <v>-1351000</v>
+        <v>-571300</v>
       </c>
       <c r="J91" s="3">
+        <v>-564800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3015400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3089200</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3166,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,37 +3198,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>931000</v>
+        <v>-690000</v>
       </c>
       <c r="E94" s="3">
-        <v>-54000</v>
+        <v>922100</v>
       </c>
       <c r="F94" s="3">
-        <v>1553800</v>
+        <v>-53500</v>
       </c>
       <c r="G94" s="3">
-        <v>-1186400</v>
+        <v>1539100</v>
       </c>
       <c r="H94" s="3">
-        <v>-925700</v>
+        <v>-1175200</v>
       </c>
       <c r="I94" s="3">
-        <v>115900</v>
+        <v>-916900</v>
       </c>
       <c r="J94" s="3">
+        <v>114800</v>
+      </c>
+      <c r="K94" s="3">
         <v>988900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3435500</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,16 +3246,17 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-108000</v>
+        <v>-254300</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-107000</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3002,13 +3271,16 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-125100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1078500</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3308,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3340,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,91 +3372,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3529000</v>
+        <v>-1603000</v>
       </c>
       <c r="E100" s="3">
-        <v>-732100</v>
+        <v>-3495600</v>
       </c>
       <c r="F100" s="3">
-        <v>-2196400</v>
+        <v>-725200</v>
       </c>
       <c r="G100" s="3">
-        <v>370000</v>
+        <v>-2175600</v>
       </c>
       <c r="H100" s="3">
-        <v>-438500</v>
+        <v>366500</v>
       </c>
       <c r="I100" s="3">
-        <v>-356900</v>
+        <v>-434300</v>
       </c>
       <c r="J100" s="3">
+        <v>-353500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1581500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2653300</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>23700</v>
+        <v>41700</v>
       </c>
       <c r="E101" s="3">
-        <v>-4000</v>
+        <v>23500</v>
       </c>
       <c r="F101" s="3">
-        <v>-177800</v>
+        <v>-3900</v>
       </c>
       <c r="G101" s="3">
-        <v>5300</v>
+        <v>-176100</v>
       </c>
       <c r="H101" s="3">
-        <v>42100</v>
+        <v>5200</v>
       </c>
       <c r="I101" s="3">
-        <v>-40800</v>
+        <v>41700</v>
       </c>
       <c r="J101" s="3">
+        <v>-40400</v>
+      </c>
+      <c r="K101" s="3">
         <v>119800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-17100</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-342400</v>
+        <v>-1064300</v>
       </c>
       <c r="E102" s="3">
-        <v>641300</v>
+        <v>-339100</v>
       </c>
       <c r="F102" s="3">
-        <v>613600</v>
+        <v>635200</v>
       </c>
       <c r="G102" s="3">
-        <v>359500</v>
+        <v>607800</v>
       </c>
       <c r="H102" s="3">
-        <v>1179800</v>
+        <v>356100</v>
       </c>
       <c r="I102" s="3">
-        <v>15800</v>
+        <v>1168700</v>
       </c>
       <c r="J102" s="3">
+        <v>15700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-990200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>136900</v>
       </c>
     </row>

--- a/Financials/Quarterly/TSCDY_QTR_FIN.xlsx
+++ b/Financials/Quarterly/TSCDY_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1ACE3A0-66A2-4F27-8B8C-6703735B77A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="TSCDY" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>TSCDY</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,165 +654,191 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43701</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43519</v>
+      </c>
+      <c r="F7" s="2">
         <v>43337</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43155</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>42973</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>42791</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42609</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42427</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42245</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42063</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>41874</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>41391000</v>
+        <v>41252300</v>
       </c>
       <c r="E8" s="3">
-        <v>38023200</v>
+        <v>41598700</v>
       </c>
       <c r="F8" s="3">
-        <v>36962800</v>
+        <v>41026000</v>
       </c>
       <c r="G8" s="3">
-        <v>37275900</v>
+        <v>37690600</v>
       </c>
       <c r="H8" s="3">
-        <v>35657200</v>
+        <v>36636900</v>
       </c>
       <c r="I8" s="3">
+        <v>36947200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>35342800</v>
+      </c>
+      <c r="K8" s="3">
         <v>35173300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>35172000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>38264600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>36693700</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>38846300</v>
+        <v>38233600</v>
       </c>
       <c r="E9" s="3">
-        <v>35653300</v>
+        <v>38896800</v>
       </c>
       <c r="F9" s="3">
-        <v>34899400</v>
+        <v>38277500</v>
       </c>
       <c r="G9" s="3">
-        <v>35245100</v>
+        <v>35339000</v>
       </c>
       <c r="H9" s="3">
-        <v>33751600</v>
+        <v>34591700</v>
       </c>
       <c r="I9" s="3">
+        <v>34934300</v>
+      </c>
+      <c r="J9" s="3">
+        <v>33454000</v>
+      </c>
+      <c r="K9" s="3">
         <v>66604600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>67352000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>83537200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>73544000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2544700</v>
+        <v>3018700</v>
       </c>
       <c r="E10" s="3">
-        <v>2369900</v>
+        <v>2702000</v>
       </c>
       <c r="F10" s="3">
-        <v>2063400</v>
+        <v>2748500</v>
       </c>
       <c r="G10" s="3">
-        <v>2030800</v>
+        <v>2351600</v>
       </c>
       <c r="H10" s="3">
-        <v>1905600</v>
+        <v>2045200</v>
       </c>
       <c r="I10" s="3">
+        <v>2012900</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1888800</v>
+      </c>
+      <c r="K10" s="3">
         <v>-31431300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>-32179900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>-45272600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>-36850400</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -860,8 +851,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,8 +885,14 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -924,51 +923,63 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>113500</v>
+        <v>323200</v>
       </c>
       <c r="E14" s="3">
-        <v>-69100</v>
+        <v>-10300</v>
       </c>
       <c r="F14" s="3">
-        <v>82200</v>
+        <v>186200</v>
       </c>
       <c r="G14" s="3">
-        <v>375600</v>
+        <v>-153800</v>
       </c>
       <c r="H14" s="3">
-        <v>182600</v>
+        <v>81400</v>
       </c>
       <c r="I14" s="3">
+        <v>372300</v>
+      </c>
+      <c r="J14" s="3">
+        <v>181000</v>
+      </c>
+      <c r="K14" s="3">
         <v>-113500</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>5394900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>179100</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>52200</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
+        <v>51700</v>
+      </c>
+      <c r="E15" s="3">
+        <v>49100</v>
+      </c>
+      <c r="F15" s="3">
+        <v>51700</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
@@ -982,14 +993,20 @@
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -999,72 +1016,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>40322700</v>
+        <v>39786200</v>
       </c>
       <c r="E17" s="3">
-        <v>36769800</v>
+        <v>40117200</v>
       </c>
       <c r="F17" s="3">
-        <v>35820300</v>
+        <v>39724200</v>
       </c>
       <c r="G17" s="3">
-        <v>36621100</v>
+        <v>36445600</v>
       </c>
       <c r="H17" s="3">
-        <v>34985500</v>
+        <v>35504400</v>
       </c>
       <c r="I17" s="3">
+        <v>36298200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>34677000</v>
+      </c>
+      <c r="K17" s="3">
         <v>34260300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>34686800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>46120600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>36409200</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1068200</v>
+        <v>1466000</v>
       </c>
       <c r="E18" s="3">
-        <v>1253400</v>
+        <v>1481600</v>
       </c>
       <c r="F18" s="3">
-        <v>1142600</v>
+        <v>1301900</v>
       </c>
       <c r="G18" s="3">
-        <v>654800</v>
+        <v>1245000</v>
       </c>
       <c r="H18" s="3">
-        <v>671700</v>
+        <v>1132500</v>
       </c>
       <c r="I18" s="3">
+        <v>649000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>665800</v>
+      </c>
+      <c r="K18" s="3">
         <v>913000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>485200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-7856000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>284400</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,168 +1108,200 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-163000</v>
+        <v>-350400</v>
       </c>
       <c r="E20" s="3">
-        <v>-37800</v>
+        <v>240500</v>
       </c>
       <c r="F20" s="3">
-        <v>-183900</v>
+        <v>-161600</v>
       </c>
       <c r="G20" s="3">
-        <v>-286900</v>
+        <v>-77600</v>
       </c>
       <c r="H20" s="3">
-        <v>-281700</v>
+        <v>-182300</v>
       </c>
       <c r="I20" s="3">
+        <v>-284400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-279200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-520400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-109600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-185700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-59300</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1790800</v>
+        <v>2446000</v>
       </c>
       <c r="E21" s="3">
-        <v>2069900</v>
+        <v>2182300</v>
       </c>
       <c r="F21" s="3">
-        <v>1793400</v>
+        <v>2457600</v>
       </c>
       <c r="G21" s="3">
-        <v>1246900</v>
+        <v>2014200</v>
       </c>
       <c r="H21" s="3">
-        <v>1211700</v>
+        <v>1777600</v>
       </c>
       <c r="I21" s="3">
+        <v>1235900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1201000</v>
+      </c>
+      <c r="K21" s="3">
         <v>1188200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1320000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-6971100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1198300</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>169600</v>
+        <v>477000</v>
       </c>
       <c r="E22" s="3">
-        <v>243900</v>
+        <v>156400</v>
       </c>
       <c r="F22" s="3">
-        <v>237400</v>
+        <v>541700</v>
       </c>
       <c r="G22" s="3">
-        <v>271300</v>
+        <v>201700</v>
       </c>
       <c r="H22" s="3">
-        <v>297400</v>
+        <v>235300</v>
       </c>
       <c r="I22" s="3">
+        <v>268900</v>
+      </c>
+      <c r="J22" s="3">
+        <v>294800</v>
+      </c>
+      <c r="K22" s="3">
         <v>258300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>246500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>273900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>250200</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>735600</v>
+        <v>638600</v>
       </c>
       <c r="E23" s="3">
-        <v>971700</v>
+        <v>1565600</v>
       </c>
       <c r="F23" s="3">
-        <v>721300</v>
+        <v>598600</v>
       </c>
       <c r="G23" s="3">
-        <v>96500</v>
+        <v>965700</v>
       </c>
       <c r="H23" s="3">
-        <v>92600</v>
+        <v>714900</v>
       </c>
       <c r="I23" s="3">
+        <v>95700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>91800</v>
+      </c>
+      <c r="K23" s="3">
         <v>134300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>129100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-8315500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-25000</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>180000</v>
+        <v>219800</v>
       </c>
       <c r="E24" s="3">
-        <v>221700</v>
+        <v>296100</v>
       </c>
       <c r="F24" s="3">
-        <v>177400</v>
+        <v>161600</v>
       </c>
       <c r="G24" s="3">
-        <v>61300</v>
+        <v>219800</v>
       </c>
       <c r="H24" s="3">
-        <v>52200</v>
+        <v>175800</v>
       </c>
       <c r="I24" s="3">
+        <v>60800</v>
+      </c>
+      <c r="J24" s="3">
+        <v>51700</v>
+      </c>
+      <c r="K24" s="3">
         <v>-138300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>67800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-890200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1269,72 +1332,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>555600</v>
+        <v>418900</v>
       </c>
       <c r="E26" s="3">
-        <v>750000</v>
+        <v>1269500</v>
       </c>
       <c r="F26" s="3">
-        <v>543900</v>
+        <v>437000</v>
       </c>
       <c r="G26" s="3">
-        <v>35200</v>
+        <v>746000</v>
       </c>
       <c r="H26" s="3">
-        <v>40400</v>
+        <v>539100</v>
       </c>
       <c r="I26" s="3">
+        <v>34900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>40100</v>
+      </c>
+      <c r="K26" s="3">
         <v>272600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>61300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-7425400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-32900</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>555600</v>
+        <v>418900</v>
       </c>
       <c r="E27" s="3">
-        <v>744800</v>
+        <v>1272100</v>
       </c>
       <c r="F27" s="3">
-        <v>546500</v>
+        <v>437000</v>
       </c>
       <c r="G27" s="3">
-        <v>41700</v>
+        <v>740800</v>
       </c>
       <c r="H27" s="3">
-        <v>52200</v>
+        <v>541700</v>
       </c>
       <c r="I27" s="3">
+        <v>41400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>51700</v>
+      </c>
+      <c r="K27" s="3">
         <v>280400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>65200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-7392500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-32900</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1365,40 +1446,52 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>6500</v>
       </c>
-      <c r="F29" s="3">
-        <v>275200</v>
-      </c>
-      <c r="G29" s="3">
-        <v>24800</v>
-      </c>
       <c r="H29" s="3">
-        <v>-170900</v>
+        <v>272800</v>
       </c>
       <c r="I29" s="3">
+        <v>24600</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-169400</v>
+      </c>
+      <c r="K29" s="3">
         <v>375600</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>-541300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>-175100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>40800</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1429,8 +1522,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1461,72 +1560,90 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>163000</v>
+        <v>350400</v>
       </c>
       <c r="E32" s="3">
-        <v>37800</v>
+        <v>-240500</v>
       </c>
       <c r="F32" s="3">
-        <v>183900</v>
+        <v>161600</v>
       </c>
       <c r="G32" s="3">
-        <v>286900</v>
+        <v>77600</v>
       </c>
       <c r="H32" s="3">
-        <v>281700</v>
+        <v>182300</v>
       </c>
       <c r="I32" s="3">
+        <v>284400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>279200</v>
+      </c>
+      <c r="K32" s="3">
         <v>520400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>109600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>185700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>59300</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>555600</v>
+        <v>418900</v>
       </c>
       <c r="E33" s="3">
-        <v>751300</v>
+        <v>1272100</v>
       </c>
       <c r="F33" s="3">
-        <v>821700</v>
+        <v>437000</v>
       </c>
       <c r="G33" s="3">
-        <v>66500</v>
+        <v>747200</v>
       </c>
       <c r="H33" s="3">
-        <v>-118700</v>
+        <v>814500</v>
       </c>
       <c r="I33" s="3">
+        <v>65900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-117600</v>
+      </c>
+      <c r="K33" s="3">
         <v>656100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-476100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-7567600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1557,77 +1674,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>555600</v>
+        <v>418900</v>
       </c>
       <c r="E35" s="3">
-        <v>751300</v>
+        <v>1272100</v>
       </c>
       <c r="F35" s="3">
-        <v>821700</v>
+        <v>437000</v>
       </c>
       <c r="G35" s="3">
-        <v>66500</v>
+        <v>747200</v>
       </c>
       <c r="H35" s="3">
-        <v>-118700</v>
+        <v>814500</v>
       </c>
       <c r="I35" s="3">
+        <v>65900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-117600</v>
+      </c>
+      <c r="K35" s="3">
         <v>656100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-476100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-7567600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43701</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43519</v>
+      </c>
+      <c r="F38" s="2">
         <v>43337</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43155</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>42973</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>42791</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42609</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42427</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42245</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42063</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>41874</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1640,8 +1775,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1654,296 +1791,352 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4229900</v>
+        <v>3433700</v>
       </c>
       <c r="E41" s="3">
-        <v>5294200</v>
+        <v>3769800</v>
       </c>
       <c r="F41" s="3">
-        <v>5633300</v>
+        <v>4192600</v>
       </c>
       <c r="G41" s="3">
-        <v>4983800</v>
+        <v>5247500</v>
       </c>
       <c r="H41" s="3">
-        <v>8751900</v>
+        <v>5583600</v>
       </c>
       <c r="I41" s="3">
+        <v>4939800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>8674800</v>
+      </c>
+      <c r="K41" s="3">
         <v>4019900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2851200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2850900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>3841100</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1046100</v>
+        <v>506800</v>
       </c>
       <c r="E42" s="3">
-        <v>1430800</v>
+        <v>590800</v>
       </c>
       <c r="F42" s="3">
-        <v>3273800</v>
+        <v>1036800</v>
       </c>
       <c r="G42" s="3">
-        <v>3927300</v>
+        <v>1418200</v>
       </c>
       <c r="H42" s="3">
-        <v>6041600</v>
+        <v>3245000</v>
       </c>
       <c r="I42" s="3">
+        <v>3892700</v>
+      </c>
+      <c r="J42" s="3">
+        <v>5988300</v>
+      </c>
+      <c r="K42" s="3">
         <v>4591200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>391300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>780900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>2612500</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8418000</v>
+        <v>8510600</v>
       </c>
       <c r="E43" s="3">
-        <v>8025400</v>
+        <v>8323100</v>
       </c>
       <c r="F43" s="3">
-        <v>7956300</v>
+        <v>8197700</v>
       </c>
       <c r="G43" s="3">
-        <v>7374600</v>
+        <v>7954700</v>
       </c>
       <c r="H43" s="3">
-        <v>7255900</v>
+        <v>7886100</v>
       </c>
       <c r="I43" s="3">
+        <v>7309500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>7191900</v>
+      </c>
+      <c r="K43" s="3">
         <v>6834600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>7223300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>7836200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>8100900</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3679500</v>
+        <v>3515200</v>
       </c>
       <c r="E44" s="3">
-        <v>2953000</v>
+        <v>3383300</v>
       </c>
       <c r="F44" s="3">
-        <v>3246400</v>
+        <v>3647000</v>
       </c>
       <c r="G44" s="3">
-        <v>3001200</v>
+        <v>2926900</v>
       </c>
       <c r="H44" s="3">
-        <v>3267300</v>
+        <v>3217800</v>
       </c>
       <c r="I44" s="3">
+        <v>2974800</v>
+      </c>
+      <c r="J44" s="3">
+        <v>3238500</v>
+      </c>
+      <c r="K44" s="3">
         <v>3169500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>3417300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>3893700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>4739100</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>253000</v>
+        <v>170700</v>
       </c>
       <c r="E45" s="3">
-        <v>35200</v>
+        <v>67200</v>
       </c>
       <c r="F45" s="3">
-        <v>523000</v>
+        <v>250800</v>
       </c>
       <c r="G45" s="3">
-        <v>821700</v>
+        <v>34900</v>
       </c>
       <c r="H45" s="3">
-        <v>1022600</v>
+        <v>518400</v>
       </c>
       <c r="I45" s="3">
+        <v>814500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1013600</v>
+      </c>
+      <c r="K45" s="3">
         <v>537400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>6825500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>384500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17626400</v>
+        <v>16136900</v>
       </c>
       <c r="E46" s="3">
-        <v>17738600</v>
+        <v>16134300</v>
       </c>
       <c r="F46" s="3">
-        <v>20467200</v>
+        <v>17324900</v>
       </c>
       <c r="G46" s="3">
-        <v>20108500</v>
+        <v>17582200</v>
       </c>
       <c r="H46" s="3">
-        <v>21963300</v>
+        <v>20286800</v>
       </c>
       <c r="I46" s="3">
+        <v>19931300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>21769600</v>
+      </c>
+      <c r="K46" s="3">
         <v>19152500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>20708500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>15746200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>19371300</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11824900</v>
+        <v>7767200</v>
       </c>
       <c r="E47" s="3">
-        <v>11243200</v>
+        <v>12529900</v>
       </c>
       <c r="F47" s="3">
-        <v>10583200</v>
+        <v>11656000</v>
       </c>
       <c r="G47" s="3">
-        <v>9830600</v>
+        <v>11144000</v>
       </c>
       <c r="H47" s="3">
-        <v>9415800</v>
+        <v>10489900</v>
       </c>
       <c r="I47" s="3">
+        <v>9743900</v>
+      </c>
+      <c r="J47" s="3">
+        <v>9332800</v>
+      </c>
+      <c r="K47" s="3">
         <v>8852400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>7965400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>7665000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>8447200</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24651500</v>
+        <v>34496000</v>
       </c>
       <c r="E48" s="3">
-        <v>24287600</v>
+        <v>59415000</v>
       </c>
       <c r="F48" s="3">
-        <v>24133600</v>
+        <v>34806300</v>
       </c>
       <c r="G48" s="3">
-        <v>23701900</v>
+        <v>24073400</v>
       </c>
       <c r="H48" s="3">
-        <v>23061500</v>
+        <v>23920900</v>
       </c>
       <c r="I48" s="3">
+        <v>23492900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>22858200</v>
+      </c>
+      <c r="K48" s="3">
         <v>23448900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>21518500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>27131100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>32553700</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8429800</v>
+        <v>8083900</v>
       </c>
       <c r="E49" s="3">
-        <v>3470800</v>
+        <v>16196300</v>
       </c>
       <c r="F49" s="3">
-        <v>3589500</v>
+        <v>16697900</v>
       </c>
       <c r="G49" s="3">
-        <v>3543800</v>
+        <v>3440200</v>
       </c>
       <c r="H49" s="3">
-        <v>3675500</v>
+        <v>3557800</v>
       </c>
       <c r="I49" s="3">
+        <v>3512600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>3643100</v>
+      </c>
+      <c r="K49" s="3">
         <v>3748600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>4072100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>4965600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>5264500</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1974,8 +2167,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2006,40 +2205,52 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1903000</v>
+        <v>7418100</v>
       </c>
       <c r="E52" s="3">
-        <v>1802600</v>
+        <v>1974100</v>
       </c>
       <c r="F52" s="3">
-        <v>1887300</v>
+        <v>1962500</v>
       </c>
       <c r="G52" s="3">
-        <v>2621700</v>
+        <v>1786700</v>
       </c>
       <c r="H52" s="3">
-        <v>3410800</v>
+        <v>1870700</v>
       </c>
       <c r="I52" s="3">
+        <v>2598500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>3380700</v>
+      </c>
+      <c r="K52" s="3">
         <v>2062100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>2508200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>2712600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>2583500</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2070,40 +2281,52 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>64435500</v>
+        <v>73902200</v>
       </c>
       <c r="E54" s="3">
-        <v>58542700</v>
+        <v>73558300</v>
       </c>
       <c r="F54" s="3">
-        <v>60660800</v>
+        <v>74092200</v>
       </c>
       <c r="G54" s="3">
-        <v>59806500</v>
+        <v>58026500</v>
       </c>
       <c r="H54" s="3">
-        <v>61526900</v>
+        <v>60126000</v>
       </c>
       <c r="I54" s="3">
+        <v>59279200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>60984400</v>
+      </c>
+      <c r="K54" s="3">
         <v>57264400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>56772700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>58220600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>68220300</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2116,8 +2339,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2130,200 +2355,238 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12715700</v>
+        <v>12464000</v>
       </c>
       <c r="E57" s="3">
-        <v>11731000</v>
+        <v>11804600</v>
       </c>
       <c r="F57" s="3">
-        <v>11698400</v>
+        <v>12293300</v>
       </c>
       <c r="G57" s="3">
-        <v>11575800</v>
+        <v>11627500</v>
       </c>
       <c r="H57" s="3">
-        <v>11125800</v>
+        <v>11595200</v>
       </c>
       <c r="I57" s="3">
+        <v>11473700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>11027700</v>
+      </c>
+      <c r="K57" s="3">
         <v>10816600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>11064500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>13065200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>14713800</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3305100</v>
+        <v>1877200</v>
       </c>
       <c r="E58" s="3">
-        <v>3376900</v>
+        <v>2902400</v>
       </c>
       <c r="F58" s="3">
-        <v>5917700</v>
+        <v>4196500</v>
       </c>
       <c r="G58" s="3">
-        <v>3339000</v>
+        <v>1912100</v>
       </c>
       <c r="H58" s="3">
-        <v>3945500</v>
+        <v>3813800</v>
       </c>
       <c r="I58" s="3">
+        <v>3309600</v>
+      </c>
+      <c r="J58" s="3">
+        <v>3910800</v>
+      </c>
+      <c r="K58" s="3">
         <v>3686000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1590000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>5288200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>3916100</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12726200</v>
+        <v>12237700</v>
       </c>
       <c r="E59" s="3">
-        <v>11425800</v>
+        <v>12453600</v>
       </c>
       <c r="F59" s="3">
-        <v>10417500</v>
+        <v>12462700</v>
       </c>
       <c r="G59" s="3">
-        <v>10395400</v>
+        <v>11325000</v>
       </c>
       <c r="H59" s="3">
-        <v>9988400</v>
+        <v>10325700</v>
       </c>
       <c r="I59" s="3">
+        <v>10303700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>9900300</v>
+      </c>
+      <c r="K59" s="3">
         <v>8800200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>11907000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>10376300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>10124800</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>28747000</v>
+        <v>26578900</v>
       </c>
       <c r="E60" s="3">
-        <v>25085800</v>
+        <v>27114100</v>
       </c>
       <c r="F60" s="3">
-        <v>25963600</v>
+        <v>28934400</v>
       </c>
       <c r="G60" s="3">
-        <v>25310100</v>
+        <v>24864600</v>
       </c>
       <c r="H60" s="3">
-        <v>25059700</v>
+        <v>25734700</v>
       </c>
       <c r="I60" s="3">
+        <v>25087000</v>
+      </c>
+      <c r="J60" s="3">
+        <v>24838800</v>
+      </c>
+      <c r="K60" s="3">
         <v>23302800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>24561500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>26085600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>28754700</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7047200</v>
+        <v>20431600</v>
       </c>
       <c r="E61" s="3">
-        <v>9315400</v>
+        <v>19959700</v>
       </c>
       <c r="F61" s="3">
-        <v>11266600</v>
+        <v>19737300</v>
       </c>
       <c r="G61" s="3">
-        <v>12303600</v>
+        <v>9233200</v>
       </c>
       <c r="H61" s="3">
-        <v>14517000</v>
+        <v>11167300</v>
       </c>
       <c r="I61" s="3">
+        <v>12195100</v>
+      </c>
+      <c r="J61" s="3">
+        <v>14389000</v>
+      </c>
+      <c r="K61" s="3">
         <v>13970500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>14849600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>14025100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>14360900</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9894500</v>
+        <v>8840200</v>
       </c>
       <c r="E62" s="3">
-        <v>10472300</v>
+        <v>9119500</v>
       </c>
       <c r="F62" s="3">
-        <v>9654500</v>
+        <v>8707100</v>
       </c>
       <c r="G62" s="3">
-        <v>13827000</v>
+        <v>10380000</v>
       </c>
       <c r="H62" s="3">
-        <v>14240500</v>
+        <v>9569400</v>
       </c>
       <c r="I62" s="3">
+        <v>13705100</v>
+      </c>
+      <c r="J62" s="3">
+        <v>14114900</v>
+      </c>
+      <c r="K62" s="3">
         <v>8753200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>9329700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>8798800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>7372700</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2354,8 +2617,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2386,8 +2655,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2418,40 +2693,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>45661300</v>
+        <v>55819700</v>
       </c>
       <c r="E66" s="3">
-        <v>44844800</v>
+        <v>56162300</v>
       </c>
       <c r="F66" s="3">
-        <v>46852100</v>
+        <v>57351600</v>
       </c>
       <c r="G66" s="3">
-        <v>51409400</v>
+        <v>44449400</v>
       </c>
       <c r="H66" s="3">
-        <v>53792400</v>
+        <v>46439000</v>
       </c>
       <c r="I66" s="3">
+        <v>50956100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>53318100</v>
+      </c>
+      <c r="K66" s="3">
         <v>46013400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>48734200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>48909500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>50518600</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2464,8 +2751,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2496,8 +2785,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2528,8 +2823,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2560,8 +2861,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2592,40 +2899,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10418800</v>
+        <v>9306900</v>
       </c>
       <c r="E72" s="3">
-        <v>5616400</v>
+        <v>9220300</v>
       </c>
       <c r="F72" s="3">
-        <v>5312500</v>
+        <v>8501500</v>
       </c>
       <c r="G72" s="3">
-        <v>506100</v>
+        <v>5566800</v>
       </c>
       <c r="H72" s="3">
-        <v>-24800</v>
+        <v>5265600</v>
       </c>
       <c r="I72" s="3">
+        <v>501600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="K72" s="3">
         <v>4074700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>863500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>2068700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>10459300</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2656,8 +2975,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2688,8 +3013,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2720,40 +3051,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18774200</v>
+        <v>18082500</v>
       </c>
       <c r="E76" s="3">
-        <v>13697900</v>
+        <v>17396100</v>
       </c>
       <c r="F76" s="3">
-        <v>13808700</v>
+        <v>16740600</v>
       </c>
       <c r="G76" s="3">
-        <v>8397100</v>
+        <v>13577100</v>
       </c>
       <c r="H76" s="3">
-        <v>7734600</v>
+        <v>13687000</v>
       </c>
       <c r="I76" s="3">
+        <v>8323100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>7666400</v>
+      </c>
+      <c r="K76" s="3">
         <v>11251000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>8038500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>9311000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>17701600</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2784,77 +3127,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43701</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43519</v>
+      </c>
+      <c r="F80" s="2">
         <v>43337</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43155</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>42973</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>42791</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42609</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42427</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42245</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42063</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>41874</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>555600</v>
+        <v>418900</v>
       </c>
       <c r="E81" s="3">
-        <v>751300</v>
+        <v>1272100</v>
       </c>
       <c r="F81" s="3">
-        <v>821700</v>
+        <v>437000</v>
       </c>
       <c r="G81" s="3">
-        <v>66500</v>
+        <v>747200</v>
       </c>
       <c r="H81" s="3">
-        <v>-118700</v>
+        <v>814500</v>
       </c>
       <c r="I81" s="3">
+        <v>65900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-117600</v>
+      </c>
+      <c r="K81" s="3">
         <v>656100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-476100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-7567600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2867,40 +3228,48 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>885600</v>
+        <v>1330300</v>
       </c>
       <c r="E83" s="3">
-        <v>854300</v>
+        <v>460200</v>
       </c>
       <c r="F83" s="3">
-        <v>834800</v>
+        <v>1317400</v>
       </c>
       <c r="G83" s="3">
-        <v>879100</v>
+        <v>846800</v>
       </c>
       <c r="H83" s="3">
-        <v>821700</v>
+        <v>827400</v>
       </c>
       <c r="I83" s="3">
+        <v>871400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>814500</v>
+      </c>
+      <c r="K83" s="3">
         <v>795600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>944300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>1070600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>973100</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2931,8 +3300,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2963,8 +3338,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2995,8 +3376,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3027,8 +3414,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3059,40 +3452,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1186900</v>
+        <v>1696200</v>
       </c>
       <c r="E89" s="3">
-        <v>2210800</v>
+        <v>1004500</v>
       </c>
       <c r="F89" s="3">
-        <v>1417800</v>
+        <v>1537200</v>
       </c>
       <c r="G89" s="3">
-        <v>1420400</v>
+        <v>2221000</v>
       </c>
       <c r="H89" s="3">
-        <v>1159500</v>
+        <v>1405300</v>
       </c>
       <c r="I89" s="3">
+        <v>1407900</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1149300</v>
+      </c>
+      <c r="K89" s="3">
         <v>2478200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>294800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-310800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>936200</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3105,40 +3510,48 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-554300</v>
+        <v>-540400</v>
       </c>
       <c r="E91" s="3">
-        <v>-940400</v>
+        <v>-873900</v>
       </c>
       <c r="F91" s="3">
-        <v>-937800</v>
+        <v>-549400</v>
       </c>
       <c r="G91" s="3">
-        <v>-937800</v>
+        <v>-932100</v>
       </c>
       <c r="H91" s="3">
-        <v>-633900</v>
+        <v>-929500</v>
       </c>
       <c r="I91" s="3">
+        <v>-929500</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-628300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-571300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-564800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-3015400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-3089200</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3169,8 +3582,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3201,40 +3620,52 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-690000</v>
+        <v>-440800</v>
       </c>
       <c r="E94" s="3">
-        <v>922100</v>
+        <v>-796400</v>
       </c>
       <c r="F94" s="3">
-        <v>-53500</v>
+        <v>-681300</v>
       </c>
       <c r="G94" s="3">
-        <v>1539100</v>
+        <v>914000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1175200</v>
+        <v>-53000</v>
       </c>
       <c r="I94" s="3">
+        <v>1525500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-1164800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-916900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>114800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>988900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-3435500</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3247,22 +3678,24 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-254300</v>
+        <v>-515800</v>
       </c>
       <c r="E96" s="3">
-        <v>-107000</v>
+        <v>-209400</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-252100</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-106000</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3274,13 +3707,19 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-125100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-1078500</v>
       </c>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3311,8 +3750,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3343,8 +3788,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3375,100 +3826,124 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1603000</v>
+        <v>-1628900</v>
       </c>
       <c r="E100" s="3">
-        <v>-3495600</v>
+        <v>-972200</v>
       </c>
       <c r="F100" s="3">
-        <v>-725200</v>
+        <v>-1588900</v>
       </c>
       <c r="G100" s="3">
-        <v>-2175600</v>
+        <v>-3464700</v>
       </c>
       <c r="H100" s="3">
-        <v>366500</v>
+        <v>-718800</v>
       </c>
       <c r="I100" s="3">
+        <v>-2156400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>363300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-434300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-353500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1581500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>2653300</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="F101" s="3">
+        <v>41400</v>
+      </c>
+      <c r="G101" s="3">
+        <v>23300</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-174500</v>
+      </c>
+      <c r="J101" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K101" s="3">
         <v>41700</v>
       </c>
-      <c r="E101" s="3">
-        <v>23500</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-176100</v>
-      </c>
-      <c r="H101" s="3">
-        <v>5200</v>
-      </c>
-      <c r="I101" s="3">
-        <v>41700</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-40400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>119800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-17100</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1064300</v>
+        <v>-336100</v>
       </c>
       <c r="E102" s="3">
-        <v>-339100</v>
+        <v>-422700</v>
       </c>
       <c r="F102" s="3">
-        <v>635200</v>
+        <v>-1054900</v>
       </c>
       <c r="G102" s="3">
-        <v>607800</v>
+        <v>-336100</v>
       </c>
       <c r="H102" s="3">
-        <v>356100</v>
+        <v>629600</v>
       </c>
       <c r="I102" s="3">
+        <v>602400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>352900</v>
+      </c>
+      <c r="K102" s="3">
         <v>1168700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>15700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-990200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>136900</v>
       </c>
     </row>
